--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1999.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1999.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.16579871489867</v>
+        <v>0.7992891073226929</v>
       </c>
       <c r="B1">
-        <v>2.242201206496451</v>
+        <v>2.767135381698608</v>
       </c>
       <c r="C1">
-        <v>8.114181890533645</v>
+        <v>7.643196105957031</v>
       </c>
       <c r="D1">
-        <v>2.532759048149973</v>
+        <v>2.244378805160522</v>
       </c>
       <c r="E1">
-        <v>1.220173632657147</v>
+        <v>1.484423398971558</v>
       </c>
     </row>
   </sheetData>
